--- a/Doc/Preference.xlsx
+++ b/Doc/Preference.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="73">
   <si>
     <t>当前用户昵称</t>
   </si>
@@ -131,157 +131,154 @@
     <t>Douban_FollowerAvatar2</t>
   </si>
   <si>
+    <t>SinaWeibo_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SinaWeibo_NickName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SinaWeibo_FollowerNickName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Renren_FollowerAvatar2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更清晰的关注用户头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若为nil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Global_PlaySound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否播放声音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSS_FollowerPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSS_FollowerDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注站点的描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSS_FollowerSiteTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本次Token的过期日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Douban_ExpirationDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Renren_ExpirationDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Global_HasRenrenPermited</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人人是否已经同意了发表状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Global_LauchCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设为1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设为随便</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>SinaWeibo_Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SinaWeibo_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SinaWeibo_NickName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SinaWeibo_FollowerNickName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Renren_FollowerAvatar2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更清晰的关注用户头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NSString</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SinaWeibo_ExpirationDate</t>
+  </si>
+  <si>
+    <t>"False"</t>
+  </si>
+  <si>
+    <t>"True"</t>
+  </si>
+  <si>
+    <t>Global_NeedFetchImageInRetweet</t>
+  </si>
+  <si>
+    <t>Global_UsePassword</t>
+  </si>
+  <si>
+    <t>Global_Password</t>
+  </si>
+  <si>
+    <t>Global_FirstLauch</t>
+  </si>
+  <si>
+    <t>是否第一次启动</t>
+  </si>
+  <si>
+    <t>String</t>
   </si>
   <si>
     <t>nil</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若为nil</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"NO"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"YES"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Global_PlaySound</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否播放声音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Global_UsePassword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Global_NeedFetchImageInRetweet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Global_Password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RSS_FollowerPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RSS_FollowerDescription</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关注站点的描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RSS_FollowerSiteTitle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SinaWeibo_ExpirationDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本次Token的过期日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Douban_ExpirationDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Renren_ExpirationDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Global_HasRenrenPermited</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人人是否已经同意了发表状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Global_LauchCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>启动次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NSNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nil</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设为1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设为随便</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -615,243 +612,256 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.75" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
-    <col min="5" max="5" width="49.125" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="49.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="C1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
         <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>46</v>
       </c>
-      <c r="E4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>50</v>
-      </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:4">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:4">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:4">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:4">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:4">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:4">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:4">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:4">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:4">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:4">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:4">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:4">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:4">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:4">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:4">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:4">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:4">
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:4">
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:4">
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:4">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
@@ -867,32 +877,32 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B10"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.375" customWidth="1"/>
-    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -900,23 +910,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -924,7 +934,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -932,7 +942,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -940,7 +950,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -948,12 +958,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -971,13 +981,13 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.125" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" customWidth="1"/>
     <col min="2" max="2" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -985,7 +995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -993,7 +1003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1001,7 +1011,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1009,7 +1019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1017,7 +1027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1025,15 +1035,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
         <v>41</v>
       </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1041,7 +1051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1049,17 +1059,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1076,34 +1086,34 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1120,13 +1130,13 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -1134,7 +1144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -1142,7 +1152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -1150,7 +1160,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1158,7 +1168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1166,7 +1176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -1174,7 +1184,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -1182,7 +1192,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -1190,7 +1200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -1198,12 +1208,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Preference.xlsx
+++ b/Doc/Preference.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="81">
   <si>
     <t>当前用户昵称</t>
   </si>
@@ -262,6 +262,30 @@
   </si>
   <si>
     <t>nil</t>
+  </si>
+  <si>
+    <t>Global_UsePolling</t>
+  </si>
+  <si>
+    <t>是否启动后台轮询</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>若上下文中有items，设为最新item，否则设为当前时间</t>
+  </si>
+  <si>
+    <t>Global_LastTimeLatestForground</t>
+  </si>
+  <si>
+    <t>Global_LastTimeLatestBackround</t>
+  </si>
+  <si>
+    <t>上一次前台刷新中得到的最新状态的日期</t>
+  </si>
+  <si>
+    <t>上一次后台刷新中得到的的最新状态的日期</t>
   </si>
 </sst>
 </file>
@@ -612,13 +636,13 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="37.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34" customWidth="1"/>
+    <col min="2" max="2" width="55.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
     <col min="5" max="5" width="49.140625" customWidth="1"/>
   </cols>
@@ -754,16 +778,49 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="C9" s="1"/>
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="D9" s="1"/>
+      <c r="E9" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="C10" s="1"/>
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="D10" s="1"/>
+      <c r="E10" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="C11" s="1"/>
+      <c r="A11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="D11" s="1"/>
+      <c r="E11" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="C12" s="1"/>

--- a/Doc/Preference.xlsx
+++ b/Doc/Preference.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="90">
   <si>
     <t>当前用户昵称</t>
   </si>
@@ -273,9 +273,6 @@
     <t>long</t>
   </si>
   <si>
-    <t>若上下文中有items，设为最新item，否则设为当前时间</t>
-  </si>
-  <si>
     <t>Global_LastTimeLatestForground</t>
   </si>
   <si>
@@ -286,6 +283,36 @@
   </si>
   <si>
     <t>上一次后台刷新中得到的的最新状态的日期</t>
+  </si>
+  <si>
+    <t>Global_LastNotifcationTime</t>
+  </si>
+  <si>
+    <t>上一次发的那个Notification的最新新鲜事的日期</t>
+  </si>
+  <si>
+    <t>这个值是用来检测要不要再发一个notification，如果此值比Global_LastTimeLatestBackround小，才需要发一个新notification</t>
+  </si>
+  <si>
+    <t>Global_PollingTime</t>
+  </si>
+  <si>
+    <t>轮询的间隔</t>
+  </si>
+  <si>
+    <t>0代表不轮询，其它的值均用微秒表示</t>
+  </si>
+  <si>
+    <t>30 * 60 * 1000</t>
+  </si>
+  <si>
+    <t>Global_LastUpdateTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上一次更新的时间 </t>
+  </si>
+  <si>
+    <t>这个时间主要是用来显示在pull to refresh的header里</t>
   </si>
 </sst>
 </file>
@@ -328,10 +355,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -633,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -644,10 +677,11 @@
     <col min="1" max="1" width="37.7109375" customWidth="1"/>
     <col min="2" max="2" width="55.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="49.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="62.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="C1" t="s">
         <v>43</v>
       </c>
@@ -658,7 +692,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -675,7 +709,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>67</v>
       </c>
@@ -692,7 +726,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -709,7 +743,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -726,7 +760,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -743,7 +777,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -760,7 +794,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>69</v>
       </c>
@@ -777,7 +811,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>73</v>
       </c>
@@ -792,53 +826,84 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>75</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>75</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="C13" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="30">
+      <c r="A12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="C14" s="1"/>
+      <c r="E13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>

--- a/Doc/Preference.xlsx
+++ b/Doc/Preference.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>当前用户昵称</t>
   </si>
@@ -313,6 +313,12 @@
   </si>
   <si>
     <t>这个时间主要是用来显示在pull to refresh的header里</t>
+  </si>
+  <si>
+    <t>Global_UseBlessingPage</t>
+  </si>
+  <si>
+    <t>开启时显示祝福墙</t>
   </si>
 </sst>
 </file>
@@ -669,7 +675,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -900,8 +906,21 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="A15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" s="1"/>

--- a/Doc/Preference.xlsx
+++ b/Doc/Preference.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="95">
   <si>
     <t>当前用户昵称</t>
   </si>
@@ -319,6 +319,15 @@
   </si>
   <si>
     <t>开启时显示祝福墙</t>
+  </si>
+  <si>
+    <t>Global_FirstLoadBlessList</t>
+  </si>
+  <si>
+    <t>是否是第一次加载blesslit</t>
+  </si>
+  <si>
+    <t>检测要不要发一个dialog来提示用户在祝福墙里的内容可以显示在启动画面上</t>
   </si>
 </sst>
 </file>
@@ -675,7 +684,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="F16" sqref="A16:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -922,9 +931,25 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+    <row r="16" spans="1:6" ht="30">
+      <c r="A16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="17" spans="3:4">
       <c r="C17" s="1"/>
